--- a/SuppXLS/Scen_SYS_Demands_half.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_half.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8B08B-4A90-47ED-9AA8-6ADB546E8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4366D8-B95C-4318-A0DE-4D4A7ABB7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2960" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -8890,8 +8890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40:AP42"/>
+    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10013,10 +10013,12 @@
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="30">
+        <f>(H28*20/32+L28*12/32)</f>
+        <v>14.768235000000001</v>
+      </c>
       <c r="L28">
-        <f t="shared" si="1"/>
-        <v>40.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="M28" s="33">
         <v>0</v>

--- a/SuppXLS/Scen_SYS_Demands_half.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_half.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4366D8-B95C-4318-A0DE-4D4A7ABB7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6503EFF-8C22-4BD8-9250-40234FA69E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_half.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_half.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6503EFF-8C22-4BD8-9250-40234FA69E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850D061-1EC5-4A36-9686-AE86652D77E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23856" yWindow="4116" windowWidth="14400" windowHeight="7356" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
